--- a/mapping_schemes/west/MLI_RES.xlsx
+++ b/mapping_schemes/west/MLI_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/West/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5B6FE1-B5EA-0D4B-9324-180C171DC2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E5BC22-2596-AE49-B324-1C4C2D954A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12860" yWindow="460" windowWidth="13960" windowHeight="17260" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="12860" yWindow="460" windowWidth="13960" windowHeight="17260" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="86">
   <si>
     <t>MATO</t>
   </si>
@@ -3143,10 +3143,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3335,21 +3335,21 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3360,10 +3360,10 @@
         <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3374,24 +3374,24 @@
         <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3402,38 +3402,38 @@
         <v>71</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>72</v>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D20" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17">
@@ -3444,34 +3444,34 @@
         <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="2">
@@ -3479,14 +3479,32 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="10"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10"/>
@@ -3519,7 +3537,7 @@
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="19"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="5"/>
       <c r="C32" s="3"/>
     </row>
@@ -3529,17 +3547,17 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="10"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="5"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="19"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="10"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="5"/>
       <c r="C36" s="3"/>
     </row>
@@ -3652,13 +3670,12 @@
       <c r="A58" s="10"/>
       <c r="B58" s="5"/>
       <c r="C58" s="3"/>
-      <c r="G58" s="19"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="10"/>
       <c r="B59" s="5"/>
       <c r="C59" s="3"/>
-      <c r="G59" s="10"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="10"/>
@@ -3700,6 +3717,7 @@
       <c r="A66" s="10"/>
       <c r="B66" s="5"/>
       <c r="C66" s="3"/>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="10"/>
@@ -3747,9 +3765,9 @@
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="5"/>
+      <c r="A76" s="10"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="5"/>
@@ -3764,7 +3782,7 @@
     <row r="79" spans="1:7">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="3"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="5"/>
@@ -3779,11 +3797,11 @@
     <row r="82" spans="1:3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="5"/>
@@ -3839,6 +3857,11 @@
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3850,7 +3873,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
